--- a/data brin/data/format upload/data project.xlsx
+++ b/data brin/data/format upload/data project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10926" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11388" uniqueCount="932">
   <si>
     <t>Project Code</t>
   </si>
@@ -2714,6 +2714,102 @@
   </si>
   <si>
     <t>Teras Belakang</t>
+  </si>
+  <si>
+    <t>DKI Jakarta Mess Gatsu</t>
+  </si>
+  <si>
+    <t>Mess Gatsu</t>
+  </si>
+  <si>
+    <t>Kamar Tidur 1</t>
+  </si>
+  <si>
+    <t>Kamar Tidur 2</t>
+  </si>
+  <si>
+    <t>Kamar Tidur 3</t>
+  </si>
+  <si>
+    <t>Kamar Tidur 4</t>
+  </si>
+  <si>
+    <t>Kamar Tidur 5</t>
+  </si>
+  <si>
+    <t>Kamar Tidur 6</t>
+  </si>
+  <si>
+    <t>Kamar mandi 3</t>
+  </si>
+  <si>
+    <t>Kamar mandi 4</t>
+  </si>
+  <si>
+    <t>Kamar mandi 5</t>
+  </si>
+  <si>
+    <t>Kamar mandi 6</t>
+  </si>
+  <si>
+    <t>Kamar mandi 7</t>
+  </si>
+  <si>
+    <t>Halaman Depan</t>
+  </si>
+  <si>
+    <t>Rumdis Kepala Bkpuk (Drizal Fryantoni) No. 19 Lt.1</t>
+  </si>
+  <si>
+    <t>Ruang kerja</t>
+  </si>
+  <si>
+    <t>kamar 1</t>
+  </si>
+  <si>
+    <t>kamar 2</t>
+  </si>
+  <si>
+    <t>Dapur 1</t>
+  </si>
+  <si>
+    <t>Dapur 2</t>
+  </si>
+  <si>
+    <t>Rumdis Kepala Bkpuk (Drizal Fryantoni) No. 19 Lt.2</t>
+  </si>
+  <si>
+    <t>Kamar Mandi 1</t>
+  </si>
+  <si>
+    <t>Rumdis Kepala Or Kebumian Dan Maritim (Ocky Karna Radjasa) No. 1B Lt.1</t>
+  </si>
+  <si>
+    <t>Ruang Tv</t>
+  </si>
+  <si>
+    <t>Kamar Mandi 2</t>
+  </si>
+  <si>
+    <t>Rumdis Kepala Or Kebumian Dan Maritim (Ocky Karna Radjasa) No. 1B Lt.2</t>
+  </si>
+  <si>
+    <t>Ruang Tengah</t>
+  </si>
+  <si>
+    <t>Rumah Singgah No. 1A Lt.1</t>
+  </si>
+  <si>
+    <t>Rumah Singgah No. 1A Lt.2</t>
+  </si>
+  <si>
+    <t>Rumah Dinas Brin (Ex Kepala Lipi)</t>
+  </si>
+  <si>
+    <t>Ruang Strika</t>
+  </si>
+  <si>
+    <t>Kamar Mandi 3</t>
   </si>
 </sst>
 </file>
@@ -2721,10 +2817,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2757,10 +2853,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2773,15 +2869,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2803,6 +2906,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -2811,17 +2922,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2840,29 +2950,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2871,15 +2966,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2900,13 +2996,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2918,37 +3086,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2960,61 +3140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3026,55 +3152,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3088,61 +3184,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3171,17 +3223,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3190,7 +3286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3211,79 +3307,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3295,13 +3391,28 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3310,28 +3421,13 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3661,10 +3757,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1821"/>
+  <dimension ref="A1:F1898"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A1636" workbookViewId="0">
-      <selection activeCell="E1652" sqref="E1652"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A1869" workbookViewId="0">
+      <selection activeCell="H1898" sqref="H1898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -40096,6 +40192,1546 @@
         <v>18</v>
       </c>
     </row>
+    <row r="1822" ht="15.75" spans="1:6">
+      <c r="A1822" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1822" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1822" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1823" ht="15.75" spans="1:6">
+      <c r="A1823" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1823" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1823" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1824" ht="15.75" spans="1:6">
+      <c r="A1824" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1824" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1824" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1825" ht="15.75" spans="1:6">
+      <c r="A1825" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1825" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1825" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1826" ht="15.75" spans="1:6">
+      <c r="A1826" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1826" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1826" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1827" ht="15.75" spans="1:6">
+      <c r="A1827" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1827" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1827" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1828" ht="15.75" spans="1:6">
+      <c r="A1828" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1828" t="s">
+        <v>902</v>
+      </c>
+      <c r="F1828" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1829" ht="15.75" spans="1:6">
+      <c r="A1829" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1829" t="s">
+        <v>903</v>
+      </c>
+      <c r="F1829" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1830" ht="15.75" spans="1:6">
+      <c r="A1830" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1830" t="s">
+        <v>904</v>
+      </c>
+      <c r="F1830" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1831" ht="15.75" spans="1:6">
+      <c r="A1831" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>905</v>
+      </c>
+      <c r="F1831" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1832" ht="15.75" spans="1:6">
+      <c r="A1832" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>906</v>
+      </c>
+      <c r="F1832" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1833" ht="15.75" spans="1:6">
+      <c r="A1833" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>907</v>
+      </c>
+      <c r="F1833" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1834" ht="15.75" spans="1:6">
+      <c r="A1834" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1834" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1835" ht="15.75" spans="1:6">
+      <c r="A1835" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1835" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1835" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1836" ht="15.75" spans="1:6">
+      <c r="A1836" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>908</v>
+      </c>
+      <c r="F1836" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1837" ht="15.75" spans="1:6">
+      <c r="A1837" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1837" t="s">
+        <v>909</v>
+      </c>
+      <c r="F1837" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1838" ht="15.75" spans="1:6">
+      <c r="A1838" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1838" t="s">
+        <v>910</v>
+      </c>
+      <c r="F1838" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1839" ht="15.75" spans="1:6">
+      <c r="A1839" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1839" t="s">
+        <v>911</v>
+      </c>
+      <c r="F1839" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1840" ht="15.75" spans="1:6">
+      <c r="A1840" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1840" t="s">
+        <v>912</v>
+      </c>
+      <c r="F1840" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1841" ht="15.75" spans="1:6">
+      <c r="A1841" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1841" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1841" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1842" ht="15.75" spans="1:6">
+      <c r="A1842" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1842" t="s">
+        <v>913</v>
+      </c>
+      <c r="F1842" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1843" ht="15.75" spans="1:6">
+      <c r="A1843" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1843" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1843" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1844" ht="15.75" spans="1:6">
+      <c r="A1844" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1844" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1844" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1845" ht="15.75" spans="1:6">
+      <c r="A1845" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1845" t="s">
+        <v>915</v>
+      </c>
+      <c r="F1845" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1846" ht="15.75" spans="1:6">
+      <c r="A1846" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1846" t="s">
+        <v>916</v>
+      </c>
+      <c r="F1846" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1847" ht="15.75" spans="1:6">
+      <c r="A1847" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1847" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1847" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1848" ht="15.75" spans="1:6">
+      <c r="A1848" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1848" t="s">
+        <v>915</v>
+      </c>
+      <c r="F1848" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1849" ht="15.75" spans="1:6">
+      <c r="A1849" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1849" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1849" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1850" ht="15.75" spans="1:6">
+      <c r="A1850" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1850" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1850" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1851" ht="15.75" spans="1:6">
+      <c r="A1851" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1851" t="s">
+        <v>918</v>
+      </c>
+      <c r="F1851" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1852" ht="15.75" spans="1:6">
+      <c r="A1852" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1852" t="s">
+        <v>919</v>
+      </c>
+      <c r="F1852" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1853" ht="15.75" spans="1:6">
+      <c r="A1853" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1853" t="s">
+        <v>913</v>
+      </c>
+      <c r="F1853" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1854" ht="15.75" spans="1:6">
+      <c r="A1854" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1854" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1854" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1855" ht="15.75" spans="1:6">
+      <c r="A1855" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1855" t="s">
+        <v>920</v>
+      </c>
+      <c r="E1855" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1855" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1856" ht="15.75" spans="1:6">
+      <c r="A1856" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1856" t="s">
+        <v>920</v>
+      </c>
+      <c r="E1856" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1856" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1857" ht="15.75" spans="1:6">
+      <c r="A1857" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1857" t="s">
+        <v>920</v>
+      </c>
+      <c r="E1857" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1857" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1858" ht="15.75" spans="1:6">
+      <c r="A1858" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1858" t="s">
+        <v>920</v>
+      </c>
+      <c r="E1858" t="s">
+        <v>921</v>
+      </c>
+      <c r="F1858" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1859" ht="15.75" spans="1:6">
+      <c r="A1859" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1859" t="s">
+        <v>922</v>
+      </c>
+      <c r="E1859" t="s">
+        <v>923</v>
+      </c>
+      <c r="F1859" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1860" ht="15.75" spans="1:6">
+      <c r="A1860" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1860" t="s">
+        <v>922</v>
+      </c>
+      <c r="E1860" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1860" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1861" ht="15.75" spans="1:6">
+      <c r="A1861" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1861" t="s">
+        <v>922</v>
+      </c>
+      <c r="E1861" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1861" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1862" ht="15.75" spans="1:6">
+      <c r="A1862" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1862" t="s">
+        <v>922</v>
+      </c>
+      <c r="E1862" t="s">
+        <v>913</v>
+      </c>
+      <c r="F1862" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1863" ht="15.75" spans="1:6">
+      <c r="A1863" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>922</v>
+      </c>
+      <c r="E1863" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1863" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1864" ht="15.75" spans="1:6">
+      <c r="A1864" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1864" t="s">
+        <v>922</v>
+      </c>
+      <c r="E1864" t="s">
+        <v>921</v>
+      </c>
+      <c r="F1864" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1865" ht="15.75" spans="1:6">
+      <c r="A1865" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1865" t="s">
+        <v>922</v>
+      </c>
+      <c r="E1865" t="s">
+        <v>924</v>
+      </c>
+      <c r="F1865" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1866" ht="15.75" spans="1:6">
+      <c r="A1866" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1866" t="s">
+        <v>925</v>
+      </c>
+      <c r="E1866" t="s">
+        <v>902</v>
+      </c>
+      <c r="F1866" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1867" ht="15.75" spans="1:6">
+      <c r="A1867" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1867" t="s">
+        <v>925</v>
+      </c>
+      <c r="E1867" t="s">
+        <v>903</v>
+      </c>
+      <c r="F1867" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1868" ht="15.75" spans="1:6">
+      <c r="A1868" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>925</v>
+      </c>
+      <c r="E1868" t="s">
+        <v>904</v>
+      </c>
+      <c r="F1868" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1869" ht="15.75" spans="1:6">
+      <c r="A1869" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1869" t="s">
+        <v>925</v>
+      </c>
+      <c r="E1869" t="s">
+        <v>926</v>
+      </c>
+      <c r="F1869" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1870" ht="15.75" spans="1:6">
+      <c r="A1870" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1870" t="s">
+        <v>925</v>
+      </c>
+      <c r="E1870" t="s">
+        <v>921</v>
+      </c>
+      <c r="F1870" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1871" ht="15.75" spans="1:6">
+      <c r="A1871" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1871" t="s">
+        <v>925</v>
+      </c>
+      <c r="E1871" t="s">
+        <v>924</v>
+      </c>
+      <c r="F1871" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1872" ht="15.75" spans="1:6">
+      <c r="A1872" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1872" t="s">
+        <v>927</v>
+      </c>
+      <c r="E1872" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1872" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1873" ht="15.75" spans="1:6">
+      <c r="A1873" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1873" t="s">
+        <v>927</v>
+      </c>
+      <c r="E1873" t="s">
+        <v>923</v>
+      </c>
+      <c r="F1873" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1874" ht="15.75" spans="1:6">
+      <c r="A1874" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1874" t="s">
+        <v>927</v>
+      </c>
+      <c r="E1874" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1874" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1875" ht="15.75" spans="1:6">
+      <c r="A1875" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1875" t="s">
+        <v>927</v>
+      </c>
+      <c r="E1875" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1875" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1876" ht="15.75" spans="1:6">
+      <c r="A1876" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1876" t="s">
+        <v>927</v>
+      </c>
+      <c r="E1876" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1876" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1877" ht="15.75" spans="1:6">
+      <c r="A1877" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1877" t="s">
+        <v>927</v>
+      </c>
+      <c r="E1877" t="s">
+        <v>921</v>
+      </c>
+      <c r="F1877" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1878" ht="15.75" spans="1:6">
+      <c r="A1878" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1878" t="s">
+        <v>927</v>
+      </c>
+      <c r="E1878" t="s">
+        <v>924</v>
+      </c>
+      <c r="F1878" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1879" ht="15.75" spans="1:6">
+      <c r="A1879" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1879" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1879" t="s">
+        <v>927</v>
+      </c>
+      <c r="E1879" t="s">
+        <v>913</v>
+      </c>
+      <c r="F1879" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1880" ht="15.75" spans="1:6">
+      <c r="A1880" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>927</v>
+      </c>
+      <c r="E1880" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1880" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1881" ht="15.75" spans="1:6">
+      <c r="A1881" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>928</v>
+      </c>
+      <c r="E1881" t="s">
+        <v>926</v>
+      </c>
+      <c r="F1881" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1882" ht="15.75" spans="1:6">
+      <c r="A1882" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1882" t="s">
+        <v>928</v>
+      </c>
+      <c r="E1882" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1882" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1883" ht="15.75" spans="1:6">
+      <c r="A1883" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1883" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1883" t="s">
+        <v>928</v>
+      </c>
+      <c r="E1883" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1883" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1884" ht="15.75" spans="1:6">
+      <c r="A1884" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1884" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1884" t="s">
+        <v>928</v>
+      </c>
+      <c r="E1884" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1884" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1885" ht="15.75" spans="1:6">
+      <c r="A1885" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1885" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1885" t="s">
+        <v>928</v>
+      </c>
+      <c r="E1885" t="s">
+        <v>921</v>
+      </c>
+      <c r="F1885" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1886" ht="15.75" spans="1:6">
+      <c r="A1886" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1886" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>928</v>
+      </c>
+      <c r="E1886" t="s">
+        <v>924</v>
+      </c>
+      <c r="F1886" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1887" ht="15.75" spans="1:6">
+      <c r="A1887" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1887" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1887" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1887" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1887" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1888" ht="15.75" spans="1:6">
+      <c r="A1888" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1888" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1888" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1889" ht="15.75" spans="1:6">
+      <c r="A1889" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1889" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1889" t="s">
+        <v>902</v>
+      </c>
+      <c r="F1889" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1890" ht="15.75" spans="1:6">
+      <c r="A1890" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1890" t="s">
+        <v>903</v>
+      </c>
+      <c r="F1890" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1891" ht="15.75" spans="1:6">
+      <c r="A1891" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1891" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1891" t="s">
+        <v>904</v>
+      </c>
+      <c r="F1891" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1892" ht="15.75" spans="1:6">
+      <c r="A1892" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1892" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1892" t="s">
+        <v>930</v>
+      </c>
+      <c r="F1892" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1893" ht="15.75" spans="1:6">
+      <c r="A1893" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1893" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1893" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1893" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1894" ht="15.75" spans="1:6">
+      <c r="A1894" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1894" t="s">
+        <v>921</v>
+      </c>
+      <c r="F1894" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1895" ht="15.75" spans="1:6">
+      <c r="A1895" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1895" t="s">
+        <v>924</v>
+      </c>
+      <c r="F1895" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1896" ht="15.75" spans="1:6">
+      <c r="A1896" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1896" t="s">
+        <v>931</v>
+      </c>
+      <c r="F1896" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1897" ht="15.75" spans="1:6">
+      <c r="A1897" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1897" t="s">
+        <v>913</v>
+      </c>
+      <c r="F1897" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1898" ht="15.75" spans="1:6">
+      <c r="A1898" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1898" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1898" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
